--- a/data/income_statement/3digits/total/370_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/370_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>370-Sewerage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>370-Sewerage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>85149.50451</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>86280.78971</v>
+        <v>86280.78971000001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>163839.59949</v>
@@ -968,28 +874,33 @@
         <v>337824.1151</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>221075.26839</v>
+        <v>248504.91877</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>322478.63146</v>
+        <v>322478.6314600001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>486606.23014</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>616718.76912</v>
+        <v>636725.4740800001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>687529.13899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>573533.95652</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>593244.665</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>78739.54863999999</v>
+        <v>78739.54864000002</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>74449.53939000001</v>
@@ -1007,7 +918,7 @@
         <v>301786.68726</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>208039.76328</v>
+        <v>234769.81773</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>296017.01725</v>
@@ -1016,16 +927,21 @@
         <v>459050.66089</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>539349.45263</v>
+        <v>559179.44372</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>623907.99699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>509098.66494</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>537722.057</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3942.30933</v>
@@ -1046,7 +962,7 @@
         <v>27826.94875</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8152.79919</v>
+        <v>8752.78559</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>15909.04947</v>
@@ -1055,16 +971,21 @@
         <v>13058.66331</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>45272.00671</v>
+        <v>45446.68776000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>53608.43001999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>53627.27561</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>46515.748</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2467.64654</v>
@@ -1085,7 +1006,7 @@
         <v>8210.479090000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4882.70592</v>
+        <v>4982.31545</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>10552.56474</v>
@@ -1094,16 +1015,21 @@
         <v>14496.90594</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>32097.30978</v>
+        <v>32099.3426</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10012.71198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10808.01597</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>9006.860000000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>437.3434</v>
@@ -1133,16 +1059,21 @@
         <v>590.29606</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1814.04801</v>
+        <v>1902.51712</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4646.971469999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5111.165899999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2821.192</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>141.99077</v>
@@ -1172,16 +1103,21 @@
         <v>566.03414</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1052.48968</v>
+        <v>1140.95879</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3079.0996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3506.93153</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2287.399</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5.26318</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>23.07427</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>57.501</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>290.08945</v>
@@ -1253,13 +1194,18 @@
         <v>730.87256</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1544.7976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1581.1601</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>476.292</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>84712.16111</v>
@@ -1280,7 +1226,7 @@
         <v>337451.20125</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>220780.32402</v>
+        <v>248209.9744</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>321892.10012</v>
@@ -1289,16 +1235,21 @@
         <v>486015.93408</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>614904.72111</v>
+        <v>634822.95696</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>682882.16752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>568422.79062</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>590423.473</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>65146.51703</v>
@@ -1319,7 +1270,7 @@
         <v>298734.12991</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>180286.73154</v>
+        <v>204590.82615</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>266085.05579</v>
@@ -1328,16 +1279,21 @@
         <v>441444.33651</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>500232.5219</v>
+        <v>514803.79593</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>556538.4179999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>459010.56677</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>487967.952</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3843.83724</v>
@@ -1364,19 +1320,24 @@
         <v>33192.21815</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>36391.51319000001</v>
+        <v>36391.51319</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>37353.66469</v>
+        <v>39635.77674</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>17222.03741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17274.36714</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>30402.934</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>7984.01211</v>
@@ -1406,16 +1367,21 @@
         <v>35091.70756</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>28438.66457</v>
+        <v>29205.19015</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>31997.95075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35695.53359000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21979.311</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>53318.66768000001</v>
@@ -1433,28 +1399,33 @@
         <v>251298.53515</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>262953.4849099999</v>
+        <v>262953.48491</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>156639.13859</v>
+        <v>180866.08913</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>210237.91195</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>367763.9358499999</v>
+        <v>367763.93585</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>431362.45491</v>
+        <v>442885.09131</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>505305.06134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>404027.2975399999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>430353.239</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1475,7 +1446,7 @@
         <v>901.20789</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>265.77033</v>
+        <v>342.9144</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>526.37658</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>2013.3685</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>5232.468</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>19565.64408</v>
@@ -1508,31 +1484,36 @@
         <v>39529.16614</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>29120.33576</v>
+        <v>29120.33576000001</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>38717.07133999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>40493.59248</v>
+        <v>43619.14825</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>55807.04433</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>44571.59757</v>
+        <v>44571.59757000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>114672.19921</v>
+        <v>120019.16103</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>126343.74952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>109412.22385</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>102455.521</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>12997.33336</v>
@@ -1553,7 +1534,7 @@
         <v>31459.2326</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>34309.47669</v>
+        <v>36078.21526</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>45821.16774</v>
@@ -1562,16 +1543,21 @@
         <v>56036.91609</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>67677.23521</v>
+        <v>68289.43937000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>69123.09639999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>67615.30690000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>70719.72900000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>151.68468</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>151.685</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1303.67237</v>
@@ -1631,10 +1622,10 @@
         <v>3181.02186</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3874.33687</v>
+        <v>3905.55457</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3347.101900000001</v>
+        <v>3347.1019</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>5317.21042</v>
@@ -1643,13 +1634,18 @@
         <v>9341.674080000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5891.164269999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6758.62309</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4757.234</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>11693.66099</v>
@@ -1670,7 +1666,7 @@
         <v>27754.57785</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>30315.76209</v>
+        <v>32053.28296</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>42440.49839</v>
@@ -1679,16 +1675,21 @@
         <v>50554.56765999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>58179.45885</v>
+        <v>58791.66301</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>63080.24745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>60704.99913</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>65810.81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>6568.310719999999</v>
@@ -1703,31 +1704,36 @@
         <v>13680.9786</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1657.447649999999</v>
+        <v>-1657.44765</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7257.83874</v>
+        <v>7257.838739999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6184.115790000001</v>
+        <v>7540.932989999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9985.876590000002</v>
+        <v>9985.87659</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-11465.31852</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>46994.964</v>
+        <v>51729.72166</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>57220.65312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41796.91695</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>31735.792</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1286.69426</v>
@@ -1748,7 +1754,7 @@
         <v>15511.00125</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>38046.3529</v>
+        <v>38101.2954</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>20143.14062</v>
@@ -1757,16 +1763,21 @@
         <v>33221.19553</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>104699.50799</v>
+        <v>112715.18756</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>45490.27637000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>49920.43436</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>78727.42200000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>149.36543</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>377.8339099999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>152.497</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>149.71107</v>
@@ -1835,16 +1851,21 @@
         <v>1004.47454</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>957.52058</v>
+        <v>3277.54935</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2647.44688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4457.589150000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>238.96779</v>
@@ -1865,7 +1886,7 @@
         <v>1650.48324</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2189.91472</v>
+        <v>2214.91042</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>1897.8511</v>
@@ -1874,16 +1895,21 @@
         <v>2899.56333</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2900.11969</v>
+        <v>3207.00807</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6079.94505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6259.29037</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5338.212</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1818.04526</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5312.172</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>27.05098</v>
@@ -1970,13 +2006,13 @@
         <v>13.59779</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>677.93841</v>
+        <v>677.9384099999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1111.29307</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>389.1799099999999</v>
+        <v>389.17991</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>14.74113</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>638.97001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>203.427</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>748.96672</v>
@@ -2021,7 +2062,7 @@
         <v>10666.2054</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>24594.2934</v>
+        <v>24623.5301</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>17684.91741</v>
@@ -2030,16 +2071,21 @@
         <v>27997.3517</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>89456.12490000001</v>
+        <v>94844.88732000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>32822.453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>35259.86042</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>62735.032</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>-27.36773</v>
@@ -2138,7 +2194,7 @@
         <v>150.31927</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8027.63042</v>
+        <v>8028.34052</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>361.10567</v>
@@ -2150,19 +2206,24 @@
         <v>771.98772</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1105.58226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1108.84524</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>686.05</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>883.1946999999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3253.859309999999</v>
+        <v>3253.859310000001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>8126.9601</v>
@@ -2177,25 +2238,30 @@
         <v>14178.66441</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>24763.66812</v>
+        <v>24764.20813</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26392.97087999999</v>
+        <v>26392.97088</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>52680.71207</v>
+        <v>52680.71206999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>145919.66107</v>
+        <v>151377.28614</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>53143.77104000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>55684.55946</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>62828.073</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>13.38836</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>123.38993</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>100.852</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2267,13 +2338,18 @@
         <v>58064.51769</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7994.907540000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7994.907539999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>15326.086</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.3252</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>660.68288</v>
+        <v>660.6828800000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>2855.84356</v>
@@ -2324,7 +2405,7 @@
         <v>7815.91051</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9494.6124</v>
+        <v>9494.612399999998</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>14143.3603</v>
@@ -2342,16 +2423,21 @@
         <v>25659.09045</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>87078.22916</v>
+        <v>92535.85421</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>44432.70611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>46973.49449</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>44434.632</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>208.79826</v>
@@ -2447,10 +2543,10 @@
         <v>34.58467</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>95.92728000000001</v>
+        <v>95.92728</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>404.15056</v>
+        <v>404.6905699999999</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>31.74224</v>
@@ -2459,16 +2555,21 @@
         <v>143.59352</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>753.27907</v>
+        <v>753.27909</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>592.7674599999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>592.7675</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2966.503</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>893.09801</v>
@@ -2489,25 +2590,30 @@
         <v>3883.93812</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4294.039949999999</v>
+        <v>4310.712189999999</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>5607.75662</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9420.838099999999</v>
+        <v>9420.838100000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11258.46263</v>
+        <v>11857.4865</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>11833.14701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12078.26935</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14963.681</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>884.07677</v>
@@ -2528,25 +2634,30 @@
         <v>3848.52413</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4291.479689999999</v>
+        <v>4308.15193</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>4766.79009</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9318.288149999998</v>
+        <v>9318.28815</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>11097.60964</v>
+        <v>11696.63351</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11690.031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11935.15334</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14920.396</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>9.021240000000001</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>143.11601</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>43.285</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6078.71227</v>
+        <v>6078.712270000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>2260.19373</v>
@@ -2600,37 +2716,42 @@
         <v>11666.19248</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-5768.024100000001</v>
+        <v>-5768.024099999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4706.23746</v>
+        <v>4706.237459999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15172.76062</v>
+        <v>16567.30807</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1871.71029</v>
+        <v>-1871.710289999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-40345.67316</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-5483.651709999999</v>
+        <v>1210.136580000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>37734.01144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>23954.5225</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>32671.46</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>858.9274499999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>854.2131999999999</v>
+        <v>854.2132</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1603.71015</v>
@@ -2639,31 +2760,36 @@
         <v>1585.80315</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2105.56468</v>
+        <v>2105.564679999999</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>2713.21612</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3341.40535</v>
+        <v>3492.453559999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3718.63336</v>
+        <v>3718.633359999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>3128.93966</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4868.0214</v>
+        <v>4946.6041</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5743.77189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5775.489509999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>13844.588</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>656.3159400000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>7.755</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>858.9274499999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>843.5212499999999</v>
+        <v>843.52125</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>1603.03575</v>
@@ -2723,7 +2854,7 @@
         <v>2710.43328</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3337.67778</v>
+        <v>3488.72599</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>3467.66158</v>
@@ -2732,16 +2863,21 @@
         <v>3124.04129</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4547.23017</v>
+        <v>4625.81287</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5087.45595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5119.17357</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>13836.833</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>505.19141</v>
@@ -2762,25 +2898,30 @@
         <v>6872.30797</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4636.54302</v>
+        <v>4667.00972</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>5838.13109</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6551.500279999999</v>
+        <v>6551.50028</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>10841.71207</v>
+        <v>10899.1972</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5341.92649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5923.704070000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>47549.357</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2.1172</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>73.56889</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>2318.37689</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>212.048</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>429.50532</v>
+        <v>429.5053199999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>492.81065</v>
@@ -2876,31 +3027,36 @@
         <v>1892.0915</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6792.5536</v>
+        <v>6792.553599999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4052.70385</v>
+        <v>4083.17055</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5681.134230000001</v>
+        <v>5681.13423</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4647.214</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10414.4506</v>
+        <v>10471.93573</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2953.0496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3534.82718</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>47319.684</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6432.448310000001</v>
+        <v>6432.44831</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>2514.57178</v>
@@ -2912,13 +3068,13 @@
         <v>11147.67938</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5734.602440000001</v>
+        <v>-5734.60244</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>547.1456099999999</v>
+        <v>547.1456100000013</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>13877.62295</v>
+        <v>15392.75191</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>-3991.20802</v>
@@ -2927,16 +3083,21 @@
         <v>-43768.23378</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-11457.34238</v>
+        <v>-4742.45652</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>38135.85684000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>23806.30794</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1033.309</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1212.1746</v>
@@ -2945,7 +3106,7 @@
         <v>1264.21605</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2224.301730000001</v>
+        <v>2224.30173</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>3066.37257</v>
@@ -2957,7 +3118,7 @@
         <v>3532.1383</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4353.18848</v>
+        <v>4662.052390000001</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>4010.0782</v>
@@ -2966,16 +3127,21 @@
         <v>2559.38972</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5186.50975</v>
+        <v>6600.786319999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9815.34922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6861.428519999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>10861.799</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>5220.27371</v>
@@ -2984,19 +3150,19 @@
         <v>1250.35573</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-310.4058199999998</v>
+        <v>-310.4058199999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>8081.30681</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-8045.43271</v>
+        <v>-8045.432710000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2984.992689999999</v>
+        <v>-2984.99269</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9524.43447</v>
+        <v>10730.69952</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>-8001.286220000001</v>
@@ -3005,13 +3171,16 @@
         <v>-46327.6235</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-16643.85213</v>
+        <v>-11343.24284</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>28320.50762</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>16944.87942</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-11895.108</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>85</v>
@@ -3050,7 +3222,7 @@
         <v>141</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>173</v>
@@ -3059,13 +3231,16 @@
         <v>187</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>199</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>